--- a/biology/Zoologie/Haliotis_tuberculata/Haliotis_tuberculata.xlsx
+++ b/biology/Zoologie/Haliotis_tuberculata/Haliotis_tuberculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haliotis tuberculata est une espèce de mollusque gastéropode marin du genre Haliotis ou Ormeau en langage courant. Sa chair, très prisée, a suscité une pêche intensive qui a conduit à son déclin dans certaines zones de distribution.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La coquille peut atteindre 10 cm de long et 6,5 cm de large. En forme d'oreille, elle porte dans sa frange inférieure une rangée incurvée de 5 à 7 orifices respiratoires. L'intérieur de la coquille est revêtu d'une couche épaisse de nacre.
 Le coquillage lui-même est constitué d'un pied charnu qui porte de très nombreuses petites tentacules sensorielles à l'epipodium (repli de la partie supérieure du pied).
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Haliotis tuberculata se trouve surtout sur les côtes rocheuses européennes, de la mer Méditerranée aux îles Anglo-Normandes, mais aussi dans l'océan Atlantique, au large des îles Canaries et de l'Afrique de l'Ouest.
 </t>
@@ -574,7 +590,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce mollusque figure sur une émission de l'île de Jersey de 1973 (valeur faciale : 20 p.).
 Il figure aussi sur un timbre émis par le royaume du Maroc en 2009 pour une valeur faciale 7,80 dirhams.
